--- a/medicine/Mort/Douairière/Douairière.xlsx
+++ b/medicine/Mort/Douairière/Douairière.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Douairi%C3%A8re</t>
+          <t>Douairière</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une douairière est, en droit ancien (conventionnel ou coutumier), une veuve d'un milieu aristocratique jouissant d'une partie des biens de son défunt mari qui constituent son douaire.
 Le sort de la douairière se distingue de celui d'un prince apanagé qui dispose pour sa part d'un apanage constitué pour subvenir à ses besoins. Le douaire se distingue également de la dot, qui est constituée au profit de l'épouse à l'occasion de son mariage.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Douairi%C3%A8re</t>
+          <t>Douairière</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,8 +527,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Liste chronologique de quelques impératrices douairières
-Chine :
+          <t>Liste chronologique de quelques impératrices douairières</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Chine :
 Cixi devint impératrice douairière de Chine en 1861, date à laquelle son fils monte sur le trône, ce qui lui donne la prééminence sur toutes les autres épouses et concubines laissées par le monarque précédent  et justifie ce titre que lui donnent les historiens ;
 Longyu.
 Russie :
@@ -525,27 +542,197 @@
 Empire du Japon
 L'impératrice Teimei, épouse de l'empereur Taishō, mort en 1926. Elle exerce une grande influence au sein du clan impérial pendant la maladie de son mari. Cette influence persiste après l'intronisation de son fils Hirohito qui inaugure l'ère Showa.
 Empire français
-L'impératrice Joséphine de Beauharnais, épouse de l'empereur Napoléon Ier, faite douairière par celui-ci à la suite de leur divorce en décembre 1809.
-Liste chronologique de quelques reines douairières
-Anne de Bretagne, veuve de Charles VIII de France en 1498, conserve son douaire lors de son remariage avec Louis XII de France l'année suivante.
+L'impératrice Joséphine de Beauharnais, épouse de l'empereur Napoléon Ier, faite douairière par celui-ci à la suite de leur divorce en décembre 1809.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Douairière</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Douairi%C3%A8re</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste chronologique de quelques reines douairières</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Anne de Bretagne, veuve de Charles VIII de France en 1498, conserve son douaire lors de son remariage avec Louis XII de France l'année suivante.
 Marie Stuart, reine d'Écosse, veuve de François II, mort en 1560.
 Alexandra de Danemark, veuve d'Édouard VII du Royaume-Uni, mort en 1910.
 Marie de Teck, veuve de George V du Royaume-Uni, mort en 1936.
 Elizabeth Bowes-Lyon, veuve de George VI du Royaume-Uni, mort en 1952 ; elle reçut le titre de « reine mère » parce qu'il y avait une « reine douairière » survivante.
 Fabiola de Mora y Aragón, veuve de Baudouin de Belgique, mort en 1993.
-Sirikit Kitiyakara, veuve de Rama IX de Thaïlande, mort en 2016.
-Liste chronologique de quelques princesses douairières
-Charlotte-Marguerite de Montmorency, Princesse douairière de Condé, veuve de Henri II de Bourbon-Condé [1]
+Sirikit Kitiyakara, veuve de Rama IX de Thaïlande, mort en 2016.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Douairière</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Douairi%C3%A8re</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste chronologique de quelques princesses douairières</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Charlotte-Marguerite de Montmorency, Princesse douairière de Condé, veuve de Henri II de Bourbon-Condé 
 Louise Élisabeth de Bourbon-Condé, princesse douairière de Conti, veuve de Louis-Armand II de Bourbon-Conti en 1727.
-Ghislaine Dommanget (1900 – 1991), veuve  de Louis II de Monaco en 1949.
-Liste chronologique de quelques duchesses douairières
-Marguerite d'York, duchesse douairière de Bourgogne[2], veuve de Charles le Téméraire en 1477. La même année, elle fait épouser à sa belle-fille la duchesse Marie de Bourgogne le futur empereur germanique Maximilien Ier du Saint-Empire. Puis, à la mort en 1482 de la duchesse Marie (décédée à 25 ans d'une chute de cheval), elle s'occupe personnellement des deux enfants de sa belle-fille : Philippe Ier de Castille et Marguerite d'Autriche.
+Ghislaine Dommanget (1900 – 1991), veuve  de Louis II de Monaco en 1949.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Douairière</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Douairi%C3%A8re</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste chronologique de quelques duchesses douairières</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Marguerite d'York, duchesse douairière de Bourgogne, veuve de Charles le Téméraire en 1477. La même année, elle fait épouser à sa belle-fille la duchesse Marie de Bourgogne le futur empereur germanique Maximilien Ier du Saint-Empire. Puis, à la mort en 1482 de la duchesse Marie (décédée à 25 ans d'une chute de cheval), elle s'occupe personnellement des deux enfants de sa belle-fille : Philippe Ier de Castille et Marguerite d'Autriche.
 Marguerite d'Autriche, duchesse douairière de Savoie, veuve de Philibert-le-Beau en 1504. Elle fit bâtir pour son défunt époux le monastère royal de Brou à Bourg-en-Bresse.
-Marguerite de Chabot, duchesse douairière d'Elbeuf, veuve de Charles Ier d'Elbeuf en 1605.
-Liste chronologique de quelques sultanes douairières
-Khnata bent Bakkar fut sultane douairière du Maroc de 1729 à 1754,  elle assura la régence pendant la période ayant suivi la disparition du sultan Moulay Ismail en 1727.
-Liste chronologique de quelques comtesses douairières
-Mathilde de Portugal (1157-1218), connue aussi sous le nom de Thérésa, veuve du comte de Flandre Philippe d'Alsace, comtesse douairière de l'Artois
+Marguerite de Chabot, duchesse douairière d'Elbeuf, veuve de Charles Ier d'Elbeuf en 1605.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Douairière</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Douairi%C3%A8re</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Liste chronologique de quelques sultanes douairières</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Khnata bent Bakkar fut sultane douairière du Maroc de 1729 à 1754,  elle assura la régence pendant la période ayant suivi la disparition du sultan Moulay Ismail en 1727.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Douairière</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Douairi%C3%A8re</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Liste chronologique de quelques comtesses douairières</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Mathilde de Portugal (1157-1218), connue aussi sous le nom de Thérésa, veuve du comte de Flandre Philippe d'Alsace, comtesse douairière de l'Artois
 Clémence (ou Clémentine) de Bourgogne, comtesse douairière, veuve de Robert II de Flandre
 Contesta sans succès, en 1119, la désignation de Charles Ier de Flandre comme comte de Flandre.
 Bérangère de Navarre, comtesse douairière du Maine, veuve de Richard Cœur de Lion
@@ -558,35 +745,37 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Douairi%C3%A8re</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Douairière</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Mort/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Douairi%C3%A8re</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Littérature</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Le terme de « douairière » apparaît, entre autres, chez :
 Malherbe, qui l'utilise dans le titre d'un poème :
-« A madame la princesse douairière, Charlotte de la Trémouille »[3].
+« A madame la princesse douairière, Charlotte de la Trémouille ».
 La Fontaine, qui l'utilise dans le titre d'une de ses pièces poétiques :
 « Pour Mignon, Chien de S A R Madame la Duchesse Douairière d'Orléans ».
 Mérimée, qui l'emploie à deux reprises dans le 2e paragraphe de sa célèbre dictée, en 1857.
